--- a/biology/Zoologie/Atractaspis_boulengeri/Atractaspis_boulengeri.xlsx
+++ b/biology/Zoologie/Atractaspis_boulengeri/Atractaspis_boulengeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractaspis boulengeri est une espèce de serpents de la famille des Lamprophiidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractaspis boulengeri est une espèce de serpents de la famille des Lamprophiidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Gabon ;
 au Cameroun ;
 en République démocratique du Congo ;
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (12 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (12 février 2014) :
 Atractaspis boulengeri boulengeri Mocquard, 1897
 Atractaspis boulengeri mixta Laurent, 1945
 Atractaspis boulengeri schmidti Laurent, 1945
@@ -613,9 +631,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de George Albert Boulenger[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de George Albert Boulenger.
 </t>
         </is>
       </c>
@@ -644,7 +664,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Laurent, 1945 : Contribution a la connaissance du Genre Atractaspis A. Smith. Revue de zoologie et de botanique africaines, vol. 38, p. 312-343.
 Laurent, 1956 : Contribution à l'herpetologie de la région des Grandes Lacs de l'Afrique centrale. Annales du Musée Royal du Congo Belge, vol. 48, p. 1-390.
